--- a/data/pca/factorExposure/factorExposure_2013-01-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-01-08.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0007930894301044052</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001814278296195851</v>
+      </c>
+      <c r="C2">
+        <v>-0.03160994582721496</v>
+      </c>
+      <c r="D2">
+        <v>0.006064186183208475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0003952394418908212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006419868065291148</v>
+      </c>
+      <c r="C4">
+        <v>-0.08457441330467509</v>
+      </c>
+      <c r="D4">
+        <v>0.07931027519658333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003733922332688512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01438204325367828</v>
+      </c>
+      <c r="C6">
+        <v>-0.1137318447317654</v>
+      </c>
+      <c r="D6">
+        <v>0.03232383806328374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001919858694112948</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005110256204227639</v>
+      </c>
+      <c r="C7">
+        <v>-0.05779092047300429</v>
+      </c>
+      <c r="D7">
+        <v>0.03160421183025326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0005764042498814522</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005918819659322443</v>
+      </c>
+      <c r="C8">
+        <v>-0.0390402405473726</v>
+      </c>
+      <c r="D8">
+        <v>0.04131407951924697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0034710208058188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004559969698407058</v>
+      </c>
+      <c r="C9">
+        <v>-0.07045403419709763</v>
+      </c>
+      <c r="D9">
+        <v>0.07217313906389143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.00236700626118996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005429980194591916</v>
+      </c>
+      <c r="C10">
+        <v>-0.05859377733991255</v>
+      </c>
+      <c r="D10">
+        <v>-0.197062525551656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002659626004372541</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005810582886771411</v>
+      </c>
+      <c r="C11">
+        <v>-0.07956345667179054</v>
+      </c>
+      <c r="D11">
+        <v>0.06057891755548398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.000427541758193298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004167977903837317</v>
+      </c>
+      <c r="C12">
+        <v>-0.06392248335071396</v>
+      </c>
+      <c r="D12">
+        <v>0.04702695229819961</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002212246518404</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009044436355576859</v>
+      </c>
+      <c r="C13">
+        <v>-0.06851499116596017</v>
+      </c>
+      <c r="D13">
+        <v>0.05709483957597554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0009407890642966782</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001665628409107211</v>
+      </c>
+      <c r="C14">
+        <v>-0.04532617503971905</v>
+      </c>
+      <c r="D14">
+        <v>0.009015148210515142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0006015024292197055</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006066223501624004</v>
+      </c>
+      <c r="C15">
+        <v>-0.04158046907689911</v>
+      </c>
+      <c r="D15">
+        <v>0.02865165690270819</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0008552576849317886</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005147550414276593</v>
+      </c>
+      <c r="C16">
+        <v>-0.06505380188340178</v>
+      </c>
+      <c r="D16">
+        <v>0.04830547234514801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.000109196208181906</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009067081970265027</v>
+      </c>
+      <c r="C20">
+        <v>-0.06566880563957529</v>
+      </c>
+      <c r="D20">
+        <v>0.0418655123631019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005738218440171057</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.0100814224119896</v>
+      </c>
+      <c r="C21">
+        <v>-0.02159262748019898</v>
+      </c>
+      <c r="D21">
+        <v>0.03589095140772939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01659450228541904</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006599194762362585</v>
+      </c>
+      <c r="C22">
+        <v>-0.09380257565741405</v>
+      </c>
+      <c r="D22">
+        <v>0.1138156943951349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01689589596181248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006415155738024276</v>
+      </c>
+      <c r="C23">
+        <v>-0.0946148833176768</v>
+      </c>
+      <c r="D23">
+        <v>0.1138519814012816</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001293170876581687</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005584799667454221</v>
+      </c>
+      <c r="C24">
+        <v>-0.07632377680435293</v>
+      </c>
+      <c r="D24">
+        <v>0.06189247301291383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003889907669671946</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003146233187638768</v>
+      </c>
+      <c r="C25">
+        <v>-0.07848755857524704</v>
+      </c>
+      <c r="D25">
+        <v>0.06692643612904646</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004780969290947937</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003674416914839735</v>
+      </c>
+      <c r="C26">
+        <v>-0.0407868233191125</v>
+      </c>
+      <c r="D26">
+        <v>0.02151263528287579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004999855959038882</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.00070764302941287</v>
+      </c>
+      <c r="C28">
+        <v>-0.108304985908772</v>
+      </c>
+      <c r="D28">
+        <v>-0.317450184702277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001167041934765698</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003365102995939839</v>
+      </c>
+      <c r="C29">
+        <v>-0.05025843488530869</v>
+      </c>
+      <c r="D29">
+        <v>0.006105770560330559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.00324311524826614</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.00973400200183447</v>
+      </c>
+      <c r="C30">
+        <v>-0.1431100401087703</v>
+      </c>
+      <c r="D30">
+        <v>0.09615960907950791</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001133662004522647</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006334847482444736</v>
+      </c>
+      <c r="C31">
+        <v>-0.04459306868215945</v>
+      </c>
+      <c r="D31">
+        <v>0.03095755399205222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005591910852521893</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004262891641581158</v>
+      </c>
+      <c r="C32">
+        <v>-0.04107483076874723</v>
+      </c>
+      <c r="D32">
+        <v>0.02165357084688997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002766195391842798</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.00857903622088651</v>
+      </c>
+      <c r="C33">
+        <v>-0.08612697532288494</v>
+      </c>
+      <c r="D33">
+        <v>0.06593884448014845</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004341825394119245</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004054083536775319</v>
+      </c>
+      <c r="C34">
+        <v>-0.05802330948530165</v>
+      </c>
+      <c r="D34">
+        <v>0.05306648310780078</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.00142558492074197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005069626559364195</v>
+      </c>
+      <c r="C35">
+        <v>-0.04043423261731902</v>
+      </c>
+      <c r="D35">
+        <v>0.01598137455190686</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.0036977697401089</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001053380151675339</v>
+      </c>
+      <c r="C36">
+        <v>-0.02489556983887847</v>
+      </c>
+      <c r="D36">
+        <v>0.02176900179268177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002378762113713065</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.00958552206962719</v>
+      </c>
+      <c r="C38">
+        <v>-0.0355016872831277</v>
+      </c>
+      <c r="D38">
+        <v>0.01524341149920876</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01176374864854875</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0003765179272929075</v>
+      </c>
+      <c r="C39">
+        <v>-0.1158113048258713</v>
+      </c>
+      <c r="D39">
+        <v>0.07323843808307574</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009966664046635199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002844420534818303</v>
+      </c>
+      <c r="C40">
+        <v>-0.09108228527771396</v>
+      </c>
+      <c r="D40">
+        <v>0.008978426351973767</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-9.981660593076718e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007301419095830815</v>
+      </c>
+      <c r="C41">
+        <v>-0.03790287852618793</v>
+      </c>
+      <c r="D41">
+        <v>0.03606732467298393</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002867920983373009</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004142451095385134</v>
+      </c>
+      <c r="C43">
+        <v>-0.05365885524832199</v>
+      </c>
+      <c r="D43">
+        <v>0.02438613936614138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004185810837642373</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003534229457337472</v>
+      </c>
+      <c r="C44">
+        <v>-0.1091301295303759</v>
+      </c>
+      <c r="D44">
+        <v>0.06764870652086091</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.00110915169491037</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002286105476193509</v>
+      </c>
+      <c r="C46">
+        <v>-0.03322526066746665</v>
+      </c>
+      <c r="D46">
+        <v>0.0326110385310205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0003771426113827151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002792144520646224</v>
+      </c>
+      <c r="C47">
+        <v>-0.03746068140974861</v>
+      </c>
+      <c r="D47">
+        <v>0.02158958323976171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003633283847102772</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006705143188598759</v>
+      </c>
+      <c r="C48">
+        <v>-0.03073079093991463</v>
+      </c>
+      <c r="D48">
+        <v>0.03204495970108977</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01187078473922669</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.0156443600904713</v>
+      </c>
+      <c r="C49">
+        <v>-0.1844301171076147</v>
+      </c>
+      <c r="D49">
+        <v>0.01291367495558835</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001708376092556415</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003715518849918414</v>
+      </c>
+      <c r="C50">
+        <v>-0.0433933833267649</v>
+      </c>
+      <c r="D50">
+        <v>0.03604614467666841</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0008000699944777036</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004486443362544004</v>
+      </c>
+      <c r="C51">
+        <v>-0.02606779231595354</v>
+      </c>
+      <c r="D51">
+        <v>0.01992433795017344</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0007947344045331891</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02120142450799139</v>
+      </c>
+      <c r="C53">
+        <v>-0.1695254899599229</v>
+      </c>
+      <c r="D53">
+        <v>0.02669140424603789</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001156390078372005</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008843800558943673</v>
+      </c>
+      <c r="C54">
+        <v>-0.05426789969217286</v>
+      </c>
+      <c r="D54">
+        <v>0.04435155907921917</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003735783211898177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009706721016165024</v>
+      </c>
+      <c r="C55">
+        <v>-0.1082812360066673</v>
+      </c>
+      <c r="D55">
+        <v>0.0395520322318765</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002704196910646107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02035991857746003</v>
+      </c>
+      <c r="C56">
+        <v>-0.1737604875164895</v>
+      </c>
+      <c r="D56">
+        <v>0.02648068618162897</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006974234216840394</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01987176469713739</v>
+      </c>
+      <c r="C58">
+        <v>-0.1121207793352769</v>
+      </c>
+      <c r="D58">
+        <v>0.04805197003625964</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.00662456085979012</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.0100854417975439</v>
+      </c>
+      <c r="C59">
+        <v>-0.1652031055705869</v>
+      </c>
+      <c r="D59">
+        <v>-0.3211205646193936</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003824107170976509</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02441288647028874</v>
+      </c>
+      <c r="C60">
+        <v>-0.2221675749114374</v>
+      </c>
+      <c r="D60">
+        <v>0.03578879827290633</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01367198058986264</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001574529153399595</v>
+      </c>
+      <c r="C61">
+        <v>-0.09516642051228895</v>
+      </c>
+      <c r="D61">
+        <v>0.0562078273370112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1635452477321314</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.145035877741259</v>
+      </c>
+      <c r="C62">
+        <v>-0.09186824118104893</v>
+      </c>
+      <c r="D62">
+        <v>0.04432196640043885</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0007788234301106721</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006371027823913847</v>
+      </c>
+      <c r="C63">
+        <v>-0.05461822013297774</v>
+      </c>
+      <c r="D63">
+        <v>0.02711403266018693</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0006849687904949197</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01547103932701743</v>
+      </c>
+      <c r="C64">
+        <v>-0.1048070796242091</v>
+      </c>
+      <c r="D64">
+        <v>0.05992073224009875</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.003133146545709743</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01826057616129637</v>
+      </c>
+      <c r="C65">
+        <v>-0.124299252160196</v>
+      </c>
+      <c r="D65">
+        <v>0.01872119064980958</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007681951343335696</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01334940188788054</v>
+      </c>
+      <c r="C66">
+        <v>-0.1598212645399539</v>
+      </c>
+      <c r="D66">
+        <v>0.113229709378579</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003567861262804456</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01578637327156435</v>
+      </c>
+      <c r="C67">
+        <v>-0.06604339223283028</v>
+      </c>
+      <c r="D67">
+        <v>0.02738216529782483</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006086016953819812</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0008116063243126979</v>
+      </c>
+      <c r="C68">
+        <v>-0.08765037541713538</v>
+      </c>
+      <c r="D68">
+        <v>-0.2588244949991738</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002141685251400879</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.00629730186774463</v>
+      </c>
+      <c r="C69">
+        <v>-0.05029744228568871</v>
+      </c>
+      <c r="D69">
+        <v>0.03962677416430348</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0004413034036667346</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001856846371622431</v>
+      </c>
+      <c r="C70">
+        <v>-0.00264173994832632</v>
+      </c>
+      <c r="D70">
+        <v>0.002675087010216068</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>3.02008158312473e-06</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005985393446249644</v>
+      </c>
+      <c r="C71">
+        <v>-0.09632215516562319</v>
+      </c>
+      <c r="D71">
+        <v>-0.3064370996485024</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003689908621024783</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01642807257135165</v>
+      </c>
+      <c r="C72">
+        <v>-0.153307316956089</v>
+      </c>
+      <c r="D72">
+        <v>0.02101513779859476</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.0120105393926877</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03133255740083755</v>
+      </c>
+      <c r="C73">
+        <v>-0.2803012812372538</v>
+      </c>
+      <c r="D73">
+        <v>0.05580237109629058</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00456008065371934</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002173834350951901</v>
+      </c>
+      <c r="C74">
+        <v>-0.1049257900940938</v>
+      </c>
+      <c r="D74">
+        <v>0.03598564171202221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002419400648638123</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01118467120225403</v>
+      </c>
+      <c r="C75">
+        <v>-0.1247379620709792</v>
+      </c>
+      <c r="D75">
+        <v>0.02365881013784025</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.00881843634188135</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02208250390294299</v>
+      </c>
+      <c r="C76">
+        <v>-0.1490861964196515</v>
+      </c>
+      <c r="D76">
+        <v>0.0600374229191063</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001631576194687889</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02367837718508744</v>
+      </c>
+      <c r="C77">
+        <v>-0.1224305344040374</v>
+      </c>
+      <c r="D77">
+        <v>0.08730103296382374</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0003807419446435164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01493194687380713</v>
+      </c>
+      <c r="C78">
+        <v>-0.09599999641919332</v>
+      </c>
+      <c r="D78">
+        <v>0.07146277057952824</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02309550877762248</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03797816935366858</v>
+      </c>
+      <c r="C79">
+        <v>-0.1563862011952091</v>
+      </c>
+      <c r="D79">
+        <v>0.03301431871477668</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006737513342719991</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01046270731745407</v>
+      </c>
+      <c r="C80">
+        <v>-0.03994876956760985</v>
+      </c>
+      <c r="D80">
+        <v>0.02837270638141338</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001075223773027612</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01552914694037337</v>
+      </c>
+      <c r="C81">
+        <v>-0.1268956673911655</v>
+      </c>
+      <c r="D81">
+        <v>0.03850665834593405</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005933172190634937</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.0200601620025314</v>
+      </c>
+      <c r="C82">
+        <v>-0.1410645316608186</v>
+      </c>
+      <c r="D82">
+        <v>0.03844922768005342</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008895182208518284</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01010193163933795</v>
+      </c>
+      <c r="C83">
+        <v>-0.05614475530947849</v>
+      </c>
+      <c r="D83">
+        <v>0.05462098809288744</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01314045326111651</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01170355948664363</v>
+      </c>
+      <c r="C84">
+        <v>-0.03708452246271782</v>
+      </c>
+      <c r="D84">
+        <v>-0.00825952727972587</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01375330555123076</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02838531964956193</v>
+      </c>
+      <c r="C85">
+        <v>-0.1231694629788872</v>
+      </c>
+      <c r="D85">
+        <v>0.04488674126932116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001550893033958375</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.006056183746307901</v>
+      </c>
+      <c r="C86">
+        <v>-0.05060235377968098</v>
+      </c>
+      <c r="D86">
+        <v>0.02708630515674307</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004474936513621033</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01035852231335795</v>
+      </c>
+      <c r="C87">
+        <v>-0.1292286778069614</v>
+      </c>
+      <c r="D87">
+        <v>0.07449568667415067</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01165899758135895</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002837599572677057</v>
+      </c>
+      <c r="C88">
+        <v>-0.06505632148664495</v>
+      </c>
+      <c r="D88">
+        <v>0.01783395811248665</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01389579901003053</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001084579482540231</v>
+      </c>
+      <c r="C89">
+        <v>-0.1480339859466892</v>
+      </c>
+      <c r="D89">
+        <v>-0.3395672881593589</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0008159212930064579</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.00724960815080788</v>
+      </c>
+      <c r="C90">
+        <v>-0.1222933874479905</v>
+      </c>
+      <c r="D90">
+        <v>-0.319085754875576</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006618494006891627</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01056743623340468</v>
+      </c>
+      <c r="C91">
+        <v>-0.1005359480287917</v>
+      </c>
+      <c r="D91">
+        <v>0.02098966599789437</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007633226484952232</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001190090831335471</v>
+      </c>
+      <c r="C92">
+        <v>-0.1356187763606927</v>
+      </c>
+      <c r="D92">
+        <v>-0.3264080376910461</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0001004429188351957</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005127629303004864</v>
+      </c>
+      <c r="C93">
+        <v>-0.1058081240213185</v>
+      </c>
+      <c r="D93">
+        <v>-0.3006197156283431</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.00342301680706381</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02270481500806291</v>
+      </c>
+      <c r="C94">
+        <v>-0.1460189110109106</v>
+      </c>
+      <c r="D94">
+        <v>0.05363315553865624</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.00470410767729532</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01663249246673704</v>
+      </c>
+      <c r="C95">
+        <v>-0.1256183607167898</v>
+      </c>
+      <c r="D95">
+        <v>0.05640786141836593</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001267629444189303</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03648926196780802</v>
+      </c>
+      <c r="C97">
+        <v>-0.2116061177750842</v>
+      </c>
+      <c r="D97">
+        <v>-0.007144651879169703</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.002920450204369098</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03694573209697018</v>
+      </c>
+      <c r="C98">
+        <v>-0.2475673391344403</v>
+      </c>
+      <c r="D98">
+        <v>0.05186373514684434</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.984812166803501</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9819817405951546</v>
+      </c>
+      <c r="C99">
+        <v>0.1180630326276965</v>
+      </c>
+      <c r="D99">
+        <v>-0.02736647433522245</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001065169956179652</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003403042109642558</v>
+      </c>
+      <c r="C101">
+        <v>-0.0504352794644142</v>
+      </c>
+      <c r="D101">
+        <v>0.006245287851089786</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
